--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/185198_muni_cz/Documents/Kody/qualityoflife/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/185198_muni_cz/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="8_{C2C882F0-AEDF-4944-952E-EA1F4638D72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E3FF991-A833-4E2E-9B7A-31CDD9FE4392}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{27285CC8-054F-4EAA-9B09-25C069176B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFA91987-9CAF-4256-A2CC-4C3D95FE2118}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
+    <workbookView xWindow="8328" yWindow="2052" windowWidth="14712" windowHeight="10308" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>Země</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>global_peace_index_INV</t>
+  </si>
+  <si>
+    <t>Excess_mortality_abs.pp</t>
+  </si>
+  <si>
+    <t>Trust.in.government.OECD</t>
+  </si>
+  <si>
+    <t>attitude .to.china.2019</t>
   </si>
 </sst>
 </file>
@@ -571,13 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD24A7-E521-49EF-B80B-B42AD968B8A3}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:T33"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +596,7 @@
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -648,8 +657,17 @@
       <c r="T1" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -710,8 +728,14 @@
       <c r="T2" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="3">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -757,8 +781,11 @@
       <c r="R3" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -820,8 +847,14 @@
       <c r="T4" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="3">
+        <v>-5</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
@@ -874,8 +907,14 @@
       <c r="R5" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="3">
+        <v>17</v>
+      </c>
+      <c r="W5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -934,8 +973,17 @@
       <c r="S6" s="3">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="3">
+        <v>8</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -996,8 +1044,17 @@
       <c r="T7" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="3">
+        <v>57</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1058,8 +1115,14 @@
       <c r="T8" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="3">
+        <v>15</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1121,8 +1184,14 @@
       <c r="T9" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="3">
+        <v>-2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1184,8 +1253,17 @@
       <c r="T10" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="3">
+        <v>9</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1246,8 +1324,17 @@
       <c r="T11" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="3">
+        <v>3</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1308,8 +1395,14 @@
       <c r="T12" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="3">
+        <v>40</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1371,8 +1464,17 @@
       <c r="T13" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="3">
+        <v>2</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1530,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1483,8 +1585,14 @@
       <c r="T15" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="3">
+        <v>25</v>
+      </c>
+      <c r="V15" s="3">
+        <v>12.182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1545,8 +1653,17 @@
       <c r="T16" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="3">
+        <v>53</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.454</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1604,8 +1721,17 @@
       <c r="S17" s="3">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="3">
+        <v>12</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -1667,8 +1793,14 @@
       <c r="T18" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="3">
+        <v>31</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1730,8 +1862,17 @@
       <c r="T19" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="3">
+        <v>16</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.629</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1793,8 +1934,17 @@
       <c r="T20" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="3">
+        <v>14</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1.599</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1853,8 +2003,14 @@
       <c r="S21" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="3">
+        <v>2</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1913,8 +2069,14 @@
       <c r="S22" s="3">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1.8340000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1976,8 +2138,17 @@
       <c r="T23" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="3">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -2039,8 +2210,14 @@
       <c r="T24" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="3">
+        <v>53</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -2096,8 +2273,11 @@
       <c r="T25" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2153,8 +2333,14 @@
       <c r="S26" s="3">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="3">
+        <v>63</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2215,8 +2401,17 @@
       <c r="T27" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="3">
+        <v>63</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
@@ -2278,8 +2473,14 @@
       <c r="T28" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="3">
+        <v>37</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1.702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -2341,8 +2542,17 @@
       <c r="T29" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="3">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -2400,8 +2610,11 @@
       <c r="S30" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -2462,8 +2675,17 @@
       <c r="T31" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" s="3">
+        <v>27</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2516,8 +2738,14 @@
       <c r="R32" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U32" s="3">
+        <v>40</v>
+      </c>
+      <c r="W32">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -2574,6 +2802,15 @@
       </c>
       <c r="S33" s="3">
         <v>0.44</v>
+      </c>
+      <c r="U33" s="3">
+        <v>28</v>
+      </c>
+      <c r="V33" s="3">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEE1268-907C-4C5E-AA8B-D432CFB2E281}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/185198_muni_cz/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{27285CC8-054F-4EAA-9B09-25C069176B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFA91987-9CAF-4256-A2CC-4C3D95FE2118}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="8_{27285CC8-054F-4EAA-9B09-25C069176B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EAC12DE-69A9-134F-8620-81AB7E650749}"/>
   <bookViews>
-    <workbookView xWindow="8328" yWindow="2052" windowWidth="14712" windowHeight="10308" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12260" windowHeight="15800" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Země</t>
   </si>
@@ -209,6 +209,45 @@
   </si>
   <si>
     <t>attitude .to.china.2019</t>
+  </si>
+  <si>
+    <t>pension_Net_OECD_precPRE</t>
+  </si>
+  <si>
+    <t>net.immigration.rate.2020.UN</t>
+  </si>
+  <si>
+    <t>crime.index.21</t>
+  </si>
+  <si>
+    <t>unemployment%</t>
+  </si>
+  <si>
+    <t>igher.Edu.SysStrength18</t>
+  </si>
+  <si>
+    <t>Nobel.laur.per10M</t>
+  </si>
+  <si>
+    <t>homeless.per.10K</t>
+  </si>
+  <si>
+    <t>chocolade.cons.kg.per.cap</t>
+  </si>
+  <si>
+    <t>BMI.avg</t>
+  </si>
+  <si>
+    <t>life.expectancy</t>
+  </si>
+  <si>
+    <t>air.pollution.PM2.5_2020</t>
+  </si>
+  <si>
+    <t>cannabis.prevalence%</t>
+  </si>
+  <si>
+    <t>%people.sex.weekly</t>
   </si>
 </sst>
 </file>
@@ -245,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +305,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -580,23 +620,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD24A7-E521-49EF-B80B-B42AD968B8A3}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -612,7 +652,7 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -666,8 +706,47 @@
       <c r="W1" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -683,7 +762,7 @@
       <c r="E2" s="1">
         <v>4451</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.46</v>
       </c>
       <c r="G2" s="1">
@@ -734,8 +813,47 @@
       <c r="V2" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>89.9</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -784,8 +902,32 @@
       <c r="U3">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>1.9</v>
+      </c>
+      <c r="Z3">
+        <v>25.02</v>
+      </c>
+      <c r="AA3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB3">
+        <v>15</v>
+      </c>
+      <c r="AC3">
+        <v>2.1</v>
+      </c>
+      <c r="AF3">
+        <v>26.6</v>
+      </c>
+      <c r="AG3">
+        <v>74.8</v>
+      </c>
+      <c r="AI3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -801,7 +943,7 @@
       <c r="E4" s="3">
         <v>3600</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <f>E4/D4</f>
         <v>1.1612903225806452</v>
       </c>
@@ -853,8 +995,41 @@
       <c r="V4" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>66.2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>45.29</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
@@ -870,7 +1045,7 @@
       <c r="E5">
         <v>750</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <f>E5/D5</f>
         <v>0.46875</v>
       </c>
@@ -913,8 +1088,32 @@
       <c r="W5">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>89.3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -930,7 +1129,7 @@
       <c r="E6" s="3">
         <v>3400</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f>E6/D6</f>
         <v>0.38202247191011235</v>
       </c>
@@ -982,8 +1181,41 @@
       <c r="W6" s="3">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>50.7</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>40.64</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1231,7 @@
       <c r="E7" s="1">
         <v>1300</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.19700000000000001</v>
       </c>
       <c r="G7" s="1">
@@ -1053,8 +1285,44 @@
       <c r="W7" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>60.3</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1338,7 @@
       <c r="E8" s="1">
         <v>1400</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.4516</v>
       </c>
       <c r="G8" s="1">
@@ -1121,8 +1389,38 @@
       <c r="V8" s="3">
         <v>1.111</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>53.1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>23.56</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1138,7 +1436,7 @@
       <c r="E9">
         <v>3300</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <f>E9/D9</f>
         <v>0.39759036144578314</v>
       </c>
@@ -1190,8 +1488,44 @@
       <c r="V9" s="3">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>64.2</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>25.53</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1541,7 @@
       <c r="E10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f>E10/D10</f>
         <v>0.2</v>
       </c>
@@ -1262,8 +1596,47 @@
       <c r="W10" s="3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>47.37</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1652,7 @@
       <c r="E11" s="1">
         <v>3900</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.66100000000000003</v>
       </c>
       <c r="G11" s="1">
@@ -1333,8 +1706,47 @@
       <c r="W11" s="3">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>51.9</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>35.14</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1762,7 @@
       <c r="E12" s="1">
         <v>1400</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.38890000000000002</v>
       </c>
       <c r="G12" s="1">
@@ -1401,8 +1813,44 @@
       <c r="W12" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>51.1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>41.3</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>37.1</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1866,7 @@
       <c r="E13" s="3">
         <v>1105</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f>E13/D13</f>
         <v>0.442</v>
       </c>
@@ -1473,8 +1921,35 @@
       <c r="W13" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>84.3</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1965,7 @@
       <c r="E14" s="1">
         <v>1000</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.1923</v>
       </c>
       <c r="G14" s="1">
@@ -1529,8 +2004,47 @@
       <c r="S14" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>31.18</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1591,8 +2105,44 @@
       <c r="V15" s="3">
         <v>12.182</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>35.9</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>45.68</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>22.89</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +2158,7 @@
       <c r="E16" s="1">
         <v>2400</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.36919999999999997</v>
       </c>
       <c r="G16" s="1">
@@ -1662,8 +2212,44 @@
       <c r="W16" s="3">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>91.8</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>44.24</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>83</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +2265,7 @@
       <c r="E17" s="1">
         <v>3300</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.375</v>
       </c>
       <c r="G17" s="1">
@@ -1730,8 +2316,47 @@
       <c r="W17" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>21.67</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -1747,7 +2372,7 @@
       <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <f t="shared" ref="F18:F26" si="0">E18/D18</f>
         <v>0.40740740740740738</v>
       </c>
@@ -1799,8 +2424,38 @@
       <c r="V18" s="3">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>54.3</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-7.6</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>37.43</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>5.18</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1816,7 +2471,7 @@
       <c r="E19" s="3">
         <v>1450</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>0.69047619047619047</v>
       </c>
@@ -1871,8 +2526,38 @@
       <c r="W19" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>-11.6</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>76</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +2573,7 @@
       <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>0.40579710144927539</v>
       </c>
@@ -1943,8 +2628,47 @@
       <c r="W20" s="3">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>80.2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>27.15</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1960,7 +2684,7 @@
       <c r="E21" s="3">
         <v>4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
@@ -2009,8 +2733,47 @@
       <c r="V21" s="3">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>42.8</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>42.19</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>82</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2789,7 @@
       <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>0.52439024390243905</v>
       </c>
@@ -2075,8 +2838,44 @@
       <c r="V22" s="3">
         <v>1.8340000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>51.6</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2891,7 @@
       <c r="E23" s="1">
         <v>1200</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
@@ -2147,8 +2946,47 @@
       <c r="W23" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>35.1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +3002,7 @@
       <c r="E24">
         <v>1300</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>0.34210526315789475</v>
       </c>
@@ -2216,8 +3054,41 @@
       <c r="V24" s="3">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <v>89.6</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -2233,7 +3104,7 @@
       <c r="E25">
         <v>1100</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
@@ -2276,8 +3147,38 @@
       <c r="U25" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <v>41.6</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>-3.8</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +3194,7 @@
       <c r="E26" s="3">
         <v>497</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f t="shared" si="0"/>
         <v>7.8888888888888883E-2</v>
       </c>
@@ -2339,8 +3240,47 @@
       <c r="W26" s="3">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>102</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2356,7 +3296,7 @@
       <c r="E27" s="1">
         <v>1100</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.37930000000000003</v>
       </c>
       <c r="G27" s="1">
@@ -2410,8 +3350,35 @@
       <c r="W27" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>5.2</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="AH27">
+        <v>15.3</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
@@ -2427,7 +3394,7 @@
       <c r="E28" s="3">
         <v>2000</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <f>E28/D28</f>
         <v>0.55555555555555558</v>
       </c>
@@ -2479,8 +3446,35 @@
       <c r="V28" s="3">
         <v>1.702</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>57.5</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -2496,7 +3490,7 @@
       <c r="E29">
         <v>4100</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <f>E29/D29</f>
         <v>0.59420289855072461</v>
       </c>
@@ -2551,8 +3545,44 @@
       <c r="W29" s="3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>53.4</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>47.43</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>74.8</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -2568,7 +3598,7 @@
       <c r="E30" s="1">
         <v>6100</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.46920000000000001</v>
       </c>
       <c r="G30" s="1">
@@ -2613,8 +3643,47 @@
       <c r="U30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>44.3</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>21.58</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>9</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +3699,7 @@
       <c r="E31" s="1">
         <v>3000</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.1429</v>
       </c>
       <c r="G31" s="1">
@@ -2684,8 +3753,47 @@
       <c r="W31" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>44.54</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +3809,7 @@
       <c r="E32" s="3">
         <v>358</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f>E32/D32</f>
         <v>0.12785714285714286</v>
       </c>
@@ -2744,8 +3852,38 @@
       <c r="W32">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>48.84</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>168</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>73</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -2761,7 +3899,7 @@
       <c r="E33" s="1">
         <v>5200</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>0.37140000000000001</v>
       </c>
       <c r="G33" s="1">
@@ -2811,6 +3949,45 @@
       </c>
       <c r="W33" s="3">
         <v>0.37</v>
+      </c>
+      <c r="X33" s="3">
+        <v>49.4</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2830,9 +4007,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +4071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +4133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -3003,7 +4180,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -3066,7 +4243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
@@ -3120,7 +4297,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -3180,7 +4357,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +4419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -3304,7 +4481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -3367,7 +4544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -3430,7 +4607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +4669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3554,7 +4731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +4794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +4850,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -3729,7 +4906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3791,7 +4968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +5027,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -3913,7 +5090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -3976,7 +5153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -4039,7 +5216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -4099,7 +5276,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -4159,7 +5336,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -4222,7 +5399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4285,7 +5462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -4342,7 +5519,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -4399,7 +5576,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -4461,7 +5638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
@@ -4524,7 +5701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -4587,7 +5764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +5823,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +5885,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
@@ -4762,7 +5939,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCEA93-3A51-B941-A04C-8708DCB5D994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B60B2AB-4683-AA45-8541-03157BBE511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -7817,7 +7817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="252" workbookViewId="0"/>
+    <sheetView zoomScale="143" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8305,8 +8305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C2114-F27E-BF47-8376-3AEAE43A1EC1}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8439,9 +8439,6 @@
       <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9270,9 +9267,6 @@
       <c r="B111" t="s">
         <v>369</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -9327,9 +9321,6 @@
       <c r="B117" t="s">
         <v>380</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -9425,7 +9416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>401</v>
       </c>
@@ -9433,7 +9424,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>403</v>
       </c>
@@ -9441,7 +9432,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>405</v>
       </c>
@@ -9449,7 +9440,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>407</v>
       </c>
@@ -9457,7 +9448,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>409</v>
       </c>
@@ -9465,7 +9456,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>411</v>
       </c>
@@ -9473,7 +9464,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>413</v>
       </c>
@@ -9481,7 +9472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>415</v>
       </c>
@@ -9489,7 +9480,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>417</v>
       </c>
@@ -9497,7 +9488,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>419</v>
       </c>
@@ -9505,18 +9496,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>421</v>
       </c>
       <c r="B139" t="s">
         <v>422</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>423</v>
       </c>
@@ -9524,7 +9512,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -9532,7 +9520,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -9540,7 +9528,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -9548,7 +9536,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -9702,9 +9690,6 @@
       </c>
       <c r="B161" t="s">
         <v>464</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B60B2AB-4683-AA45-8541-03157BBE511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BBB4A-27F4-5040-B9AC-F9BA0BA69BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="689">
   <si>
     <t>Země</t>
   </si>
@@ -2042,16 +2042,100 @@
   </si>
   <si>
     <t>interrest_worldbank</t>
+  </si>
+  <si>
+    <t>GINI Index</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>API_SI.POV.GINI_DS2_en_excel_v2_115161.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SI.POV.GINI</t>
+  </si>
+  <si>
+    <t>A Gini index of 0 represents perfect equality, where everyone has the same income, while an index of 1 (or 100 %) represents perfect inequality, where one person holds all the income.</t>
+  </si>
+  <si>
+    <t>Global Peace Index</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>IEP</t>
+  </si>
+  <si>
+    <t>Global_peace_index_GPI_public_release_2025.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.economicsandpeace.org/wp-content/uploads/2025/08/GPI_public_release_2025.xlsx</t>
+  </si>
+  <si>
+    <t>Global Terrorism Index</t>
+  </si>
+  <si>
+    <t>Global_terrorism_index_GTI_PublicReleaseData_2025.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.economicsandpeace.org/wp-content/uploads/2025/08/GTI_PublicReleaseData_2025.xlsx</t>
+  </si>
+  <si>
+    <t>Positive Peace Index</t>
+  </si>
+  <si>
+    <t>Positive_peace_index_PPI-Public-Release-Data-2023.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.economicsandpeace.org/wp-content/uploads/2025/08/PPI-Public-Release-Data-2023.xlsx</t>
+  </si>
+  <si>
+    <t>asi zbytečná duplicita, když je širší global peace index</t>
+  </si>
+  <si>
+    <t>Ecological Threat Report</t>
+  </si>
+  <si>
+    <t>Ecological_threat_ETR-2024-Public-Release-Data.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.economicsandpeace.org/wp-content/uploads/2025/08/ETR-2024-Public-Release-Data.xlsx</t>
+  </si>
+  <si>
+    <t>jen jeden rok - 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2081,10 +2165,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2098,8 +2183,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7815,9 +7905,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8270,7 +8362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -8296,7 +8388,155 @@
         <v>159</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45937</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2008</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45870</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F20" s="9">
+        <v>45870</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2009</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45870</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2024</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45870</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{E6D44943-1570-5A4B-82B5-DF9B2F835086}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{C201C217-72C2-0542-8292-BAE615F63728}"/>
+    <hyperlink ref="H20" r:id="rId3" xr:uid="{1C547B13-CEA9-3A49-95C9-D3DD5AFF9DF4}"/>
+    <hyperlink ref="H21" r:id="rId4" xr:uid="{E8A16D9B-5F27-ED41-89AB-193AF8C0B0F0}"/>
+    <hyperlink ref="H22" r:id="rId5" xr:uid="{9FCC0F3E-9A61-FF43-A4A2-857CEC99F442}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8305,8 +8545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C2114-F27E-BF47-8376-3AEAE43A1EC1}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8327,50 +8567,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>192</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>197</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>210</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8378,74 +8633,98 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>230</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>233</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>265</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>266</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>272</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>296</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>297</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8453,26 +8732,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>307</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>315</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8480,34 +8765,43 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>330</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>350</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>353</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -8515,26 +8809,32 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>378</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>381</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8542,10 +8842,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8553,82 +8853,106 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>436</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>445</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>446</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>470</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>497</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>498</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>503</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>522</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>542</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>543</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>544</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -8636,18 +8960,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>567</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>568</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>581</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>582</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8655,26 +8982,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>583</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>584</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>625</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>626</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8682,1795 +9015,1699 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>633</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>249</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B82" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>251</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B83" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>253</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B84" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>255</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>257</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B86" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>259</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B87" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>261</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>263</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B89" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>266</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>267</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B90" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>269</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B91" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B60" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>273</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>275</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B93" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>277</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B94" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>279</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B95" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>281</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B96" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>283</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B97" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>285</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B98" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>287</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B99" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>289</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B100" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>291</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B101" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>293</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B102" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>295</v>
-      </c>
-      <c r="B72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>298</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B103" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>300</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B104" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>302</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B105" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>305</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B106" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>308</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B107" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>310</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B108" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>312</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B109" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>316</v>
-      </c>
-      <c r="B84" t="s">
-        <v>317</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>318</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B110" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>320</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B111" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>322</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B112" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>324</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B113" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>326</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B114" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>328</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B115" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>330</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>331</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B116" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>333</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B117" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>335</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B118" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>337</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B119" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>339</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B120" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>341</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B121" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>343</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B122" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>345</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B123" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>347</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B124" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>349</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>351</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B125" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" t="s">
-        <v>353</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>354</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B126" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>356</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B127" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>358</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B128" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>360</v>
-      </c>
-      <c r="B107" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>362</v>
-      </c>
-      <c r="B108" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>364</v>
-      </c>
-      <c r="B109" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>366</v>
-      </c>
-      <c r="B110" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>368</v>
-      </c>
-      <c r="B111" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>370</v>
-      </c>
-      <c r="B112" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>43</v>
-      </c>
-      <c r="B113" t="s">
-        <v>372</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>373</v>
-      </c>
-      <c r="B114" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>375</v>
-      </c>
-      <c r="B115" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>377</v>
-      </c>
-      <c r="B116" t="s">
-        <v>378</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>379</v>
-      </c>
-      <c r="B117" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" t="s">
-        <v>381</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>382</v>
-      </c>
-      <c r="B119" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>384</v>
-      </c>
-      <c r="B120" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" t="s">
-        <v>386</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>387</v>
-      </c>
-      <c r="B122" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>389</v>
-      </c>
-      <c r="B123" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>391</v>
-      </c>
-      <c r="B124" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>393</v>
-      </c>
-      <c r="B125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>395</v>
-      </c>
-      <c r="B126" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>397</v>
-      </c>
-      <c r="B127" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>399</v>
-      </c>
-      <c r="B128" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="B140" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="B143" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>395</v>
+      </c>
+      <c r="B144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>401</v>
+      </c>
+      <c r="B147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>403</v>
+      </c>
+      <c r="B148" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>405</v>
+      </c>
+      <c r="B149" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>407</v>
+      </c>
+      <c r="B150" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>409</v>
+      </c>
+      <c r="B151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>411</v>
+      </c>
+      <c r="B152" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>413</v>
+      </c>
+      <c r="B153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>415</v>
+      </c>
+      <c r="B154" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>417</v>
+      </c>
+      <c r="B155" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>419</v>
+      </c>
+      <c r="B156" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>421</v>
+      </c>
+      <c r="B157" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>423</v>
+      </c>
+      <c r="B158" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>425</v>
+      </c>
+      <c r="B159" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>427</v>
+      </c>
+      <c r="B160" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>429</v>
+      </c>
+      <c r="B161" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>431</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B162" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>41</v>
-      </c>
-      <c r="B145" t="s">
-        <v>433</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>434</v>
-      </c>
-      <c r="B146" t="s">
-        <v>435</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147" t="s">
-        <v>436</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>437</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B163" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>439</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B164" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>441</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B165" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>443</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B166" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>445</v>
-      </c>
-      <c r="B152" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>447</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B167" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>449</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B168" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>451</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B169" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>453</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B170" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>455</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B171" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>457</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B172" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>459</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B173" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>461</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B174" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>463</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B175" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>465</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B176" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>467</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B177" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>469</v>
-      </c>
-      <c r="B164" t="s">
-        <v>470</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>471</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B178" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>473</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B179" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>475</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B180" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>477</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B181" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>479</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B182" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>481</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B183" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>483</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>485</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B185" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>487</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B186" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>489</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B187" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>491</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B188" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>493</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B189" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>495</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B190" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" t="s">
-        <v>497</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>42</v>
-      </c>
-      <c r="B179" t="s">
-        <v>498</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>499</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B191" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>501</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B192" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>31</v>
-      </c>
-      <c r="B182" t="s">
-        <v>503</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>504</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B193" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>506</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B194" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>508</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B195" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>510</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B196" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>512</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B197" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>514</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B198" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>516</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B199" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>518</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B200" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>520</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B201" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>20</v>
-      </c>
-      <c r="B192" t="s">
-        <v>522</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>523</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B202" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>525</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B203" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>527</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B204" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>48</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B205" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>530</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B206" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>532</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B207" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>534</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B208" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>536</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B209" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>538</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B210" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>540</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B211" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>46</v>
-      </c>
-      <c r="B203" t="s">
-        <v>542</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>543</v>
-      </c>
-      <c r="B204" t="s">
-        <v>544</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>545</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B212" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>547</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B213" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>549</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B214" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>551</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B215" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>553</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B216" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>555</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B217" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>557</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B218" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>559</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B219" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>561</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B220" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>563</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B221" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>565</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B222" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>567</v>
-      </c>
-      <c r="B216" t="s">
-        <v>568</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>569</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B223" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>571</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B224" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>573</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B225" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>575</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B226" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>577</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B227" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>579</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B228" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>581</v>
-      </c>
-      <c r="B223" t="s">
-        <v>582</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>22</v>
-      </c>
-      <c r="B224" t="s">
-        <v>583</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>23</v>
-      </c>
-      <c r="B225" t="s">
-        <v>584</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>585</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B229" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>587</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B230" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>589</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B231" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>591</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B232" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>593</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B233" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>595</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B234" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>597</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B235" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>599</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B236" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>601</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B237" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>603</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B238" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>605</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B239" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>607</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B240" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>609</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B241" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>611</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B242" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>613</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B243" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>615</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B244" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>617</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B245" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>619</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B246" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>621</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B247" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>623</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B248" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>625</v>
-      </c>
-      <c r="B246" t="s">
-        <v>626</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>627</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B249" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>629</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B250" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>631</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B251" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>26</v>
-      </c>
-      <c r="B250" t="s">
-        <v>633</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>634</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>636</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>638</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>639</v>
       </c>
@@ -10478,7 +10715,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>641</v>
       </c>
@@ -10486,7 +10723,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>643</v>
       </c>
@@ -10583,6 +10820,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
+    <sortCondition ref="C2:C267"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BBB4A-27F4-5040-B9AC-F9BA0BA69BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32235987-8BDE-EB49-BCDE-9AE2FC55D2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
@@ -8545,8 +8545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C2114-F27E-BF47-8376-3AEAE43A1EC1}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10219,7 +10219,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>504</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>506</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>508</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>510</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>512</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>514</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>516</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>518</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>520</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>525</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>527</v>
       </c>
@@ -10315,15 +10315,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>48</v>
       </c>
       <c r="B205" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>530</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>534</v>
       </c>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32235987-8BDE-EB49-BCDE-9AE2FC55D2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284AD6B-D44F-5246-97B6-B393CDFD3504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="758">
   <si>
     <t>Země</t>
   </si>
@@ -2105,13 +2105,220 @@
   </si>
   <si>
     <t>jen jeden rok - 2024</t>
+  </si>
+  <si>
+    <t>API_SL.EMP.SMGT.FE.ZS_DS2_en_excel_v2_2099.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.EMP.SMGT.FE.ZS?most_recent_value_desc=true</t>
+  </si>
+  <si>
+    <t>jen poslední roky</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Female in management</t>
+  </si>
+  <si>
+    <t>Female in parliament</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>API_SG.GEN.PARL.ZS_DS2_en_excel_v2_129525.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SG.GEN.PARL.ZS?most_recent_year_desc=false</t>
+  </si>
+  <si>
+    <t>Renewable energy consumption</t>
+  </si>
+  <si>
+    <t>Renewable energy consumption (% of total final energy consumption)</t>
+  </si>
+  <si>
+    <t>API_EG.FEC.RNEW.ZS_DS2_en_excel_v2_130319.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/EG.FEC.RNEW.ZS</t>
+  </si>
+  <si>
+    <t>Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture</t>
+  </si>
+  <si>
+    <t>API_SL.AGR.EMPL.ZS_DS2_en_excel_v2_125963.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.AGR.EMPL.ZS</t>
+  </si>
+  <si>
+    <t>Employment in services</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SL.SRV.EMPL.ZS</t>
+  </si>
+  <si>
+    <t>API_SL.SRV.EMPL.ZS_DS2_en_excel_v2_2275.xls</t>
+  </si>
+  <si>
+    <t>Employment in services (% of total employment) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>API_SP.URB.TOTL.IN.ZS_DS2_en_excel_v2_130058.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.URB.TOTL.IN.ZS</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>API_SP.RUR.TOTL.ZS_DS2_en_excel_v2_2765.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.RUR.TOTL.ZS</t>
+  </si>
+  <si>
+    <t>Znečištění vzduchu PM2.5</t>
+  </si>
+  <si>
+    <t>Zaměstnanost v zemědělství</t>
+  </si>
+  <si>
+    <t>Zaměstnanost ve službách</t>
+  </si>
+  <si>
+    <t>Městská populace</t>
+  </si>
+  <si>
+    <t>Venkovská populace</t>
+  </si>
+  <si>
+    <t>PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+  </si>
+  <si>
+    <t>Air polution</t>
+  </si>
+  <si>
+    <t>ug/m2</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/EN.ATM.PM25.MC.M3</t>
+  </si>
+  <si>
+    <t>API_EN.ATM.PM25.MC.M3_DS2_en_excel_v2_2779.xls</t>
+  </si>
+  <si>
+    <t>Mortality caused by road traffic injury (per 100,000 population)</t>
+  </si>
+  <si>
+    <t>1/100k</t>
+  </si>
+  <si>
+    <t>Traffic mortality</t>
+  </si>
+  <si>
+    <t>API_SH.STA.TRAF.P5_DS2_en_excel_v2_115069.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SH.STA.TRAF.P5</t>
+  </si>
+  <si>
+    <t>Úmrtí při dopravních nehodách</t>
+  </si>
+  <si>
+    <t>https://www.oecd.org/en/publications/2024/06/society-at-a-glance-2024_08001b73/full-report/affordable-housing_1a2ec30f.html#indicator-d1e11728-0ee0a256aa</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>lx8iym.xlsx</t>
+  </si>
+  <si>
+    <t>Jen rok 2022</t>
+  </si>
+  <si>
+    <t>Housing in own property</t>
+  </si>
+  <si>
+    <t>World Equality Index</t>
+  </si>
+  <si>
+    <t>equaldex</t>
+  </si>
+  <si>
+    <t>https://www.equaldex.com/equality-index-api</t>
+  </si>
+  <si>
+    <t>jen posled rok</t>
+  </si>
+  <si>
+    <t>LGBT Legal index</t>
+  </si>
+  <si>
+    <t>LGBT Public Opinion index</t>
+  </si>
+  <si>
+    <t>LGBT Equality index</t>
+  </si>
+  <si>
+    <t>Money From Abroad</t>
+  </si>
+  <si>
+    <t>Personal remittances, received (% of GDP)</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/BX.TRF.PWKR.DT.GD.ZS?view=map</t>
+  </si>
+  <si>
+    <t>API_BX.TRF.PWKR.DT.GD.ZS_DS2_en_excel_v2_129363.xls</t>
+  </si>
+  <si>
+    <t>Exports of goods and services (% of GDP)</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>API_NE.EXP.GNFS.ZS_DS2_en_excel_v2_129765.xls</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/NE.EXP.GNFS.ZS?view=map&amp;year=2024</t>
+  </si>
+  <si>
+    <t>Fertility</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.DYN.TFRT.IN?most_recent_value_desc=false&amp;view=map&amp;year=2024</t>
+  </si>
+  <si>
+    <t>API_SP.DYN.TFRT.IN_DS2_en_excel_v2_130353.xls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,8 +2348,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2152,6 +2373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,7 +2396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2187,6 +2414,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -2505,10 +2737,10 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2522,10 +2754,10 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2543,19 +2775,19 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2567,13 +2799,13 @@
       <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="12" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -2597,10 +2829,10 @@
       <c r="Z1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>62</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -2615,10 +2847,10 @@
       <c r="AF1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="12" t="s">
         <v>68</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -7905,10 +8137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8529,6 +8761,398 @@
         <v>688</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F23" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G23" t="s">
+        <v>689</v>
+      </c>
+      <c r="H23" t="s">
+        <v>690</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1997</v>
+      </c>
+      <c r="F24" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G24" t="s">
+        <v>696</v>
+      </c>
+      <c r="H24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>698</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1990</v>
+      </c>
+      <c r="F25" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G25" t="s">
+        <v>700</v>
+      </c>
+      <c r="H25" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1991</v>
+      </c>
+      <c r="F26" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G26" t="s">
+        <v>704</v>
+      </c>
+      <c r="H26" t="s">
+        <v>705</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1991</v>
+      </c>
+      <c r="F27" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G27" t="s">
+        <v>708</v>
+      </c>
+      <c r="H27" t="s">
+        <v>707</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1960</v>
+      </c>
+      <c r="F28" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G28" t="s">
+        <v>712</v>
+      </c>
+      <c r="H28" t="s">
+        <v>713</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1960</v>
+      </c>
+      <c r="F29" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G29" t="s">
+        <v>716</v>
+      </c>
+      <c r="H29" t="s">
+        <v>717</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1990</v>
+      </c>
+      <c r="F30" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G30" t="s">
+        <v>727</v>
+      </c>
+      <c r="H30" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G31" t="s">
+        <v>731</v>
+      </c>
+      <c r="H31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2022</v>
+      </c>
+      <c r="G32" t="s">
+        <v>736</v>
+      </c>
+      <c r="H32" t="s">
+        <v>734</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>745</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>743</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>744</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>746</v>
+      </c>
+      <c r="B37" t="s">
+        <v>747</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G37" t="s">
+        <v>749</v>
+      </c>
+      <c r="H37" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>751</v>
+      </c>
+      <c r="B38" t="s">
+        <v>750</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1990</v>
+      </c>
+      <c r="F38" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G38" t="s">
+        <v>752</v>
+      </c>
+      <c r="H38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>754</v>
+      </c>
+      <c r="B39" t="s">
+        <v>755</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>757</v>
+      </c>
+      <c r="H39" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H18" r:id="rId1" xr:uid="{E6D44943-1570-5A4B-82B5-DF9B2F835086}"/>
@@ -8538,6 +9162,7 @@
     <hyperlink ref="H22" r:id="rId5" xr:uid="{9FCC0F3E-9A61-FF43-A4A2-857CEC99F442}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8545,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C2114-F27E-BF47-8376-3AEAE43A1EC1}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A2" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8589,10 +9214,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8600,10 +9225,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8622,10 +9247,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8644,10 +9269,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8655,10 +9280,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8666,10 +9291,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -8677,10 +9302,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8688,10 +9313,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8699,10 +9324,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8710,10 +9335,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8721,10 +9346,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8732,10 +9357,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8743,10 +9368,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8754,10 +9379,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8765,10 +9390,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -8776,10 +9401,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8787,10 +9412,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8798,10 +9423,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -8809,10 +9434,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8820,10 +9445,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -8831,10 +9456,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8842,10 +9467,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8853,18 +9478,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>497</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -8872,10 +9500,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8883,10 +9511,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>469</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -8894,10 +9522,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8905,10 +9533,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -8916,10 +9544,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>543</v>
       </c>
       <c r="B34" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -8927,10 +9555,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>567</v>
       </c>
       <c r="B35" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8938,10 +9566,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>581</v>
       </c>
       <c r="B36" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8949,10 +9577,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>543</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -8960,10 +9588,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>567</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>568</v>
+        <v>296</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -8971,10 +9599,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>581</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8982,10 +9610,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>233</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8993,10 +9621,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>625</v>
       </c>
       <c r="B41" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9004,10 +9632,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9015,10 +9643,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>633</v>
+        <v>315</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9037,10 +9665,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9053,26 +9681,26 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -9085,50 +9713,50 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -9149,66 +9777,66 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -9221,106 +9849,106 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>645</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -9341,50 +9969,50 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -9421,82 +10049,82 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>561</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -9509,106 +10137,106 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>599</v>
       </c>
       <c r="B107" t="s">
-        <v>309</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>322</v>
+        <v>538</v>
       </c>
       <c r="B112" t="s">
-        <v>323</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -9621,10 +10249,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -9637,570 +10265,570 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>595</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B132" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B135" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B139" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B140" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B142" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B143" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>403</v>
+        <v>527</v>
       </c>
       <c r="B148" t="s">
-        <v>404</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>407</v>
+        <v>657</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B151" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B153" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B154" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B155" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>421</v>
+        <v>609</v>
       </c>
       <c r="B157" t="s">
-        <v>422</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B158" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B159" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B160" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B161" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="B162" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B163" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B165" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B166" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B168" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B169" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B173" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B174" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B175" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B176" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B180" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B181" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="B182" t="s">
-        <v>480</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="B184" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B185" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B187" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="B188" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B189" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -10213,597 +10841,594 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B192" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>495</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>491</v>
+      </c>
+      <c r="B194" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>493</v>
+      </c>
+      <c r="B195" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>485</v>
+      </c>
+      <c r="B196" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>473</v>
+      </c>
+      <c r="B198" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>370</v>
+      </c>
+      <c r="B199" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>504</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B200" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>506</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B201" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>508</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B202" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>534</v>
+      </c>
+      <c r="B203" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>510</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B204" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>518</v>
+      </c>
+      <c r="B205" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>512</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B206" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>514</v>
-      </c>
-      <c r="B198" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>516</v>
-      </c>
-      <c r="B199" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>518</v>
-      </c>
-      <c r="B200" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>520</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B207" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>523</v>
-      </c>
-      <c r="B202" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>525</v>
-      </c>
-      <c r="B203" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>527</v>
-      </c>
-      <c r="B204" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>48</v>
-      </c>
-      <c r="B205" t="s">
-        <v>529</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>530</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>532</v>
-      </c>
-      <c r="B207" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>534</v>
-      </c>
-      <c r="B208" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="B209" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="B210" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B211" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="B212" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="B213" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B214" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B215" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>553</v>
+        <v>655</v>
       </c>
       <c r="B216" t="s">
-        <v>554</v>
+        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B217" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="B218" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B219" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B221" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B222" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B223" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="B224" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B225" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B226" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B227" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="B228" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="B229" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="B230" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B231" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>591</v>
+        <v>423</v>
       </c>
       <c r="B232" t="s">
-        <v>592</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>593</v>
+        <v>397</v>
       </c>
       <c r="B233" t="s">
-        <v>594</v>
+        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>595</v>
+        <v>413</v>
       </c>
       <c r="B234" t="s">
-        <v>596</v>
+        <v>414</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="B235" t="s">
-        <v>598</v>
+        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="B236" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="B237" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B238" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B239" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="B240" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="B241" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B242" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B243" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B244" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B245" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B246" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B247" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B248" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B249" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B250" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="B251" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="B252" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B253" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>641</v>
+        <v>180</v>
       </c>
       <c r="B255" t="s">
-        <v>642</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B256" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B257" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B258" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B259" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B261" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B262" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>657</v>
+        <v>532</v>
       </c>
       <c r="B263" t="s">
-        <v>658</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B264" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B265" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -10823,8 +11448,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C267">
-    <sortCondition ref="C2:C267"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
+    <sortCondition ref="C2:C268"/>
+    <sortCondition ref="A2:A268"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284AD6B-D44F-5246-97B6-B393CDFD3504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01777FF-BE23-C64B-88AF-A44B61B1F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="780">
   <si>
     <t>Země</t>
   </si>
@@ -2251,9 +2251,6 @@
     <t>lx8iym.xlsx</t>
   </si>
   <si>
-    <t>Jen rok 2022</t>
-  </si>
-  <si>
     <t>Housing in own property</t>
   </si>
   <si>
@@ -2312,13 +2309,82 @@
   </si>
   <si>
     <t>API_SP.DYN.TFRT.IN_DS2_en_excel_v2_130353.xls</t>
+  </si>
+  <si>
+    <t>https://data360.worldbank.org/en/dataset/RWB_PFI</t>
+  </si>
+  <si>
+    <t>worldbank_360</t>
+  </si>
+  <si>
+    <t>Press freedom</t>
+  </si>
+  <si>
+    <t>Thrust in Government</t>
+  </si>
+  <si>
+    <t>Thrust in Government - Hi / moderatelly high thrust</t>
+  </si>
+  <si>
+    <t>vtenks.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.oecd.org/en/publications/oecd-survey-on-drivers-of-trust-in-public-institutions-2024-results_9a20554b-en.html</t>
+  </si>
+  <si>
+    <t>PEW</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/religion/feature/religious-composition-by-country-2010-2020/</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>EUROSTAT</t>
+  </si>
+  <si>
+    <t>Car age</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/product/page/road_eqs_carage</t>
+  </si>
+  <si>
+    <t>estat_road_eqs_carage$defaultview_filtered.tsv</t>
+  </si>
+  <si>
+    <t>Jen rok 2022. Proerty own a with mortgate</t>
+  </si>
+  <si>
+    <t>House price</t>
+  </si>
+  <si>
+    <t>Numbeo</t>
+  </si>
+  <si>
+    <t>houseprice_numbero_filtered_countries_fixed.csv</t>
+  </si>
+  <si>
+    <t>https://www.numbeo.com/property-investment/rankings_by_country.jsp?title=2011</t>
+  </si>
+  <si>
+    <t>house price to income a rada dalsich indikatoru.</t>
+  </si>
+  <si>
+    <t>Press Freedom index rank</t>
+  </si>
+  <si>
+    <t>RWB_PFI_Rank_long_filtered.csv</t>
+  </si>
+  <si>
+    <t>vytažen rank - pořadí - méně je lepší.. raw je RWB_PFI_WIDEF.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2362,6 +2428,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2396,7 +2477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2419,6 +2500,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -8137,10 +8220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="143" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9018,7 +9101,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>735</v>
@@ -9033,69 +9116,69 @@
         <v>734</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="E34" s="7">
         <v>2025</v>
       </c>
       <c r="H34" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E35" s="7">
         <v>2025</v>
       </c>
       <c r="H35" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E36" s="7">
         <v>2025</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>745</v>
+      </c>
+      <c r="B37" t="s">
         <v>746</v>
-      </c>
-      <c r="B37" t="s">
-        <v>747</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -9107,18 +9190,18 @@
         <v>45937</v>
       </c>
       <c r="G37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>84</v>
@@ -9130,27 +9213,113 @@
         <v>45937</v>
       </c>
       <c r="G38" t="s">
+        <v>751</v>
+      </c>
+      <c r="H38" t="s">
         <v>752</v>
-      </c>
-      <c r="H38" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>753</v>
+      </c>
+      <c r="B39" t="s">
         <v>754</v>
-      </c>
-      <c r="B39" t="s">
-        <v>755</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G39" t="s">
+        <v>756</v>
+      </c>
+      <c r="H39" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" t="s">
+        <v>777</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2002</v>
+      </c>
+      <c r="F40" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="H40" t="s">
         <v>757</v>
       </c>
-      <c r="H39" t="s">
-        <v>756</v>
+      <c r="I40" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>760</v>
+      </c>
+      <c r="B41" t="s">
+        <v>761</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>762</v>
+      </c>
+      <c r="H41" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="H42" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="G43" t="s">
+        <v>770</v>
+      </c>
+      <c r="H43" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>772</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E44">
+        <v>2009</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="H44" t="s">
+        <v>775</v>
+      </c>
+      <c r="I44" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -9170,8 +9339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C2114-F27E-BF47-8376-3AEAE43A1EC1}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A33" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A44" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01777FF-BE23-C64B-88AF-A44B61B1F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2919D0-1020-1247-B516-C156A43A0622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
+    <workbookView xWindow="-40900" yWindow="-21980" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="784">
   <si>
     <t>Země</t>
   </si>
@@ -313,9 +313,6 @@
     <t>percentile rank</t>
   </si>
   <si>
-    <t>https://data.worldbank.org/indicator/SP.DYN.LE00.IN</t>
-  </si>
-  <si>
     <t>Life expectancy</t>
   </si>
   <si>
@@ -2378,6 +2375,21 @@
   </si>
   <si>
     <t>vytažen rank - pořadí - méně je lepší.. raw je RWB_PFI_WIDEF.csv</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>IMF_GES_GeneralGov_pctGDP_1972_2023_long_filtered.csv</t>
+  </si>
+  <si>
+    <t>https://data360.worldbank.org/en/indicator/IMF_GFSE_GES_G14?view=trend</t>
+  </si>
+  <si>
+    <t>Social benefits expense</t>
+  </si>
+  <si>
+    <t>Social benefits expense, % of GDP general government</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2502,6 +2514,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -8220,10 +8233,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8245,13 +8258,13 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -8320,13 +8333,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -8338,21 +8351,21 @@
         <v>45937</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -8364,21 +8377,21 @@
         <v>45937</v>
       </c>
       <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
         <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>84</v>
@@ -8390,24 +8403,24 @@
         <v>45937</v>
       </c>
       <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
@@ -8419,24 +8432,24 @@
         <v>45937</v>
       </c>
       <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>109</v>
-      </c>
-      <c r="I7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
@@ -8448,27 +8461,27 @@
         <v>45937</v>
       </c>
       <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
         <v>115</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
       <c r="E9">
         <v>1995</v>
@@ -8477,21 +8490,21 @@
         <v>45948</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
         <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
@@ -8503,21 +8516,21 @@
         <v>45937</v>
       </c>
       <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
         <v>125</v>
-      </c>
-      <c r="H10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -8529,24 +8542,24 @@
         <v>45937</v>
       </c>
       <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
       </c>
       <c r="E12">
         <v>1960</v>
@@ -8555,24 +8568,24 @@
         <v>45948</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
         <v>141</v>
       </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
@@ -8584,24 +8597,24 @@
         <v>45937</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>84</v>
@@ -8613,24 +8626,24 @@
         <v>45937</v>
       </c>
       <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
         <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
         <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -8642,24 +8655,24 @@
         <v>45937</v>
       </c>
       <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -8671,21 +8684,21 @@
         <v>45937</v>
       </c>
       <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
         <v>156</v>
-      </c>
-      <c r="H16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>84</v>
@@ -8697,53 +8710,53 @@
         <v>45937</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F18" s="9">
         <v>45937</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E19" s="7">
         <v>2008</v>
@@ -8752,25 +8765,25 @@
         <v>45870</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E20" s="7">
         <v>2011</v>
@@ -8779,25 +8792,25 @@
         <v>45870</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>680</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E21" s="7">
         <v>2009</v>
@@ -8806,27 +8819,27 @@
         <v>45870</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="E22" s="7">
         <v>2024</v>
@@ -8835,24 +8848,24 @@
         <v>45870</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>84</v>
@@ -8864,24 +8877,24 @@
         <v>45937</v>
       </c>
       <c r="G23" t="s">
+        <v>688</v>
+      </c>
+      <c r="H23" t="s">
         <v>689</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B24" t="s">
         <v>694</v>
       </c>
-      <c r="B24" t="s">
-        <v>695</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>84</v>
@@ -8893,21 +8906,21 @@
         <v>45937</v>
       </c>
       <c r="G24" t="s">
+        <v>695</v>
+      </c>
+      <c r="H24" t="s">
         <v>696</v>
-      </c>
-      <c r="H24" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>697</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>699</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>84</v>
@@ -8919,21 +8932,21 @@
         <v>45937</v>
       </c>
       <c r="G25" t="s">
+        <v>699</v>
+      </c>
+      <c r="H25" t="s">
         <v>700</v>
-      </c>
-      <c r="H25" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>84</v>
@@ -8945,24 +8958,24 @@
         <v>45937</v>
       </c>
       <c r="G26" t="s">
+        <v>703</v>
+      </c>
+      <c r="H26" t="s">
         <v>704</v>
       </c>
-      <c r="H26" t="s">
-        <v>705</v>
-      </c>
       <c r="I26" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>84</v>
@@ -8974,24 +8987,24 @@
         <v>45937</v>
       </c>
       <c r="G27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>84</v>
@@ -9003,24 +9016,24 @@
         <v>45937</v>
       </c>
       <c r="G28" t="s">
+        <v>711</v>
+      </c>
+      <c r="H28" t="s">
         <v>712</v>
       </c>
-      <c r="H28" t="s">
-        <v>713</v>
-      </c>
       <c r="I28" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>84</v>
@@ -9032,24 +9045,24 @@
         <v>45937</v>
       </c>
       <c r="G29" t="s">
+        <v>715</v>
+      </c>
+      <c r="H29" t="s">
         <v>716</v>
       </c>
-      <c r="H29" t="s">
-        <v>717</v>
-      </c>
       <c r="I29" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>725</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>84</v>
@@ -9061,24 +9074,24 @@
         <v>45937</v>
       </c>
       <c r="G30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>84</v>
@@ -9090,98 +9103,98 @@
         <v>45937</v>
       </c>
       <c r="G31" t="s">
+        <v>730</v>
+      </c>
+      <c r="H31" t="s">
         <v>731</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E32" s="7">
         <v>2022</v>
       </c>
       <c r="G32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="E34" s="7">
         <v>2025</v>
       </c>
       <c r="H34" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E35" s="7">
         <v>2025</v>
       </c>
       <c r="H35" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E36" s="7">
         <v>2025</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>744</v>
+      </c>
+      <c r="B37" t="s">
         <v>745</v>
       </c>
-      <c r="B37" t="s">
-        <v>746</v>
-      </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>84</v>
@@ -9190,18 +9203,18 @@
         <v>45937</v>
       </c>
       <c r="G37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>84</v>
@@ -9213,38 +9226,38 @@
         <v>45937</v>
       </c>
       <c r="G38" t="s">
+        <v>750</v>
+      </c>
+      <c r="H38" t="s">
         <v>751</v>
-      </c>
-      <c r="H38" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>752</v>
+      </c>
+      <c r="B39" t="s">
         <v>753</v>
-      </c>
-      <c r="B39" t="s">
-        <v>754</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E40" s="7">
         <v>2002</v>
@@ -9252,74 +9265,98 @@
       <c r="F40" s="5">
         <v>45937</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H40" t="s">
+        <v>756</v>
+      </c>
+      <c r="I40" t="s">
         <v>778</v>
-      </c>
-      <c r="H40" t="s">
-        <v>757</v>
-      </c>
-      <c r="I40" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>759</v>
+      </c>
+      <c r="B41" t="s">
         <v>760</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>762</v>
-      </c>
-      <c r="H41" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" t="s">
         <v>764</v>
-      </c>
-      <c r="H42" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="H43" t="s">
         <v>768</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="G43" t="s">
-        <v>770</v>
-      </c>
-      <c r="H43" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>771</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>772</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>773</v>
       </c>
       <c r="E44">
         <v>2009</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="H44" t="s">
         <v>774</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>775</v>
       </c>
-      <c r="I44" t="s">
-        <v>776</v>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>782</v>
+      </c>
+      <c r="B45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="F45">
+        <v>2023</v>
+      </c>
+      <c r="G45" t="s">
+        <v>780</v>
+      </c>
+      <c r="H45" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -9350,21 +9387,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
       <c r="C1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
         <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9375,7 +9412,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9386,7 +9423,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9397,7 +9434,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9405,10 +9442,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
         <v>209</v>
-      </c>
-      <c r="B6" t="s">
-        <v>210</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9419,7 +9456,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9430,7 +9467,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9438,10 +9475,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
         <v>349</v>
-      </c>
-      <c r="B9" t="s">
-        <v>350</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9452,7 +9489,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9460,10 +9497,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" t="s">
         <v>271</v>
-      </c>
-      <c r="B11" t="s">
-        <v>272</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9474,7 +9511,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9485,7 +9522,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9496,7 +9533,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9504,10 +9541,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" t="s">
         <v>316</v>
-      </c>
-      <c r="B15" t="s">
-        <v>317</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9518,7 +9555,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9529,7 +9566,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9540,7 +9577,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9551,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9559,10 +9596,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" t="s">
         <v>377</v>
-      </c>
-      <c r="B20" t="s">
-        <v>378</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9573,7 +9610,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9584,7 +9621,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9595,7 +9632,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9606,7 +9643,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9617,7 +9654,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9625,10 +9662,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" t="s">
         <v>445</v>
-      </c>
-      <c r="B26" t="s">
-        <v>446</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9636,10 +9673,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" t="s">
         <v>469</v>
-      </c>
-      <c r="B27" t="s">
-        <v>470</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9650,7 +9687,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9661,7 +9698,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9672,7 +9709,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9683,7 +9720,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9694,7 +9731,7 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9705,7 +9742,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9713,10 +9750,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>542</v>
+      </c>
+      <c r="B34" t="s">
         <v>543</v>
-      </c>
-      <c r="B34" t="s">
-        <v>544</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9724,10 +9761,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B35" t="s">
         <v>567</v>
-      </c>
-      <c r="B35" t="s">
-        <v>568</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9735,10 +9772,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>580</v>
+      </c>
+      <c r="B36" t="s">
         <v>581</v>
-      </c>
-      <c r="B36" t="s">
-        <v>582</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9749,7 +9786,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9757,10 +9794,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" t="s">
         <v>295</v>
-      </c>
-      <c r="B38" t="s">
-        <v>296</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9771,7 +9808,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -9782,7 +9819,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -9790,10 +9827,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>624</v>
+      </c>
+      <c r="B41" t="s">
         <v>625</v>
-      </c>
-      <c r="B41" t="s">
-        <v>626</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9804,7 +9841,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9812,10 +9849,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" t="s">
         <v>314</v>
-      </c>
-      <c r="B43" t="s">
-        <v>315</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9823,7 +9860,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -9834,1786 +9871,1786 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
         <v>168</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
         <v>166</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
         <v>170</v>
-      </c>
-      <c r="B47" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
         <v>275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" t="s">
         <v>186</v>
-      </c>
-      <c r="B49" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
         <v>176</v>
-      </c>
-      <c r="B50" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
         <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
         <v>188</v>
-      </c>
-      <c r="B52" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
         <v>182</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
         <v>184</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
         <v>190</v>
-      </c>
-      <c r="B57" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
         <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" t="s">
         <v>205</v>
-      </c>
-      <c r="B60" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
         <v>202</v>
-      </c>
-      <c r="B61" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
         <v>220</v>
-      </c>
-      <c r="B62" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" t="s">
         <v>212</v>
-      </c>
-      <c r="B63" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
         <v>198</v>
-      </c>
-      <c r="B64" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" t="s">
         <v>214</v>
-      </c>
-      <c r="B65" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
         <v>224</v>
-      </c>
-      <c r="B66" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" t="s">
         <v>216</v>
-      </c>
-      <c r="B67" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" t="s">
         <v>226</v>
-      </c>
-      <c r="B68" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
         <v>218</v>
-      </c>
-      <c r="B69" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>644</v>
+      </c>
+      <c r="B70" t="s">
         <v>645</v>
-      </c>
-      <c r="B70" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
         <v>222</v>
-      </c>
-      <c r="B71" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
         <v>200</v>
-      </c>
-      <c r="B72" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" t="s">
         <v>195</v>
-      </c>
-      <c r="B73" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
         <v>251</v>
-      </c>
-      <c r="B74" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>392</v>
+      </c>
+      <c r="B75" t="s">
         <v>393</v>
-      </c>
-      <c r="B75" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s">
         <v>241</v>
-      </c>
-      <c r="B76" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" t="s">
         <v>255</v>
-      </c>
-      <c r="B77" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" t="s">
         <v>261</v>
-      </c>
-      <c r="B78" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
         <v>228</v>
-      </c>
-      <c r="B79" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
         <v>231</v>
-      </c>
-      <c r="B80" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
         <v>247</v>
-      </c>
-      <c r="B81" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" t="s">
         <v>249</v>
-      </c>
-      <c r="B82" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s">
         <v>243</v>
-      </c>
-      <c r="B83" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
         <v>245</v>
-      </c>
-      <c r="B84" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
         <v>253</v>
-      </c>
-      <c r="B85" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" t="s">
         <v>239</v>
-      </c>
-      <c r="B86" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
         <v>257</v>
-      </c>
-      <c r="B87" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
         <v>259</v>
-      </c>
-      <c r="B88" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="s">
         <v>263</v>
-      </c>
-      <c r="B89" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
         <v>267</v>
-      </c>
-      <c r="B90" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
         <v>269</v>
-      </c>
-      <c r="B91" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s">
         <v>273</v>
-      </c>
-      <c r="B92" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" t="s">
         <v>279</v>
-      </c>
-      <c r="B93" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" t="s">
         <v>281</v>
-      </c>
-      <c r="B94" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" t="s">
         <v>277</v>
-      </c>
-      <c r="B95" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>596</v>
+      </c>
+      <c r="B96" t="s">
         <v>597</v>
-      </c>
-      <c r="B96" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>286</v>
+      </c>
+      <c r="B97" t="s">
         <v>287</v>
-      </c>
-      <c r="B97" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
         <v>289</v>
-      </c>
-      <c r="B98" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>560</v>
+      </c>
+      <c r="B99" t="s">
         <v>561</v>
-      </c>
-      <c r="B99" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" t="s">
         <v>328</v>
-      </c>
-      <c r="B100" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
         <v>293</v>
-      </c>
-      <c r="B101" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>584</v>
+      </c>
+      <c r="B102" t="s">
         <v>585</v>
-      </c>
-      <c r="B102" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" t="s">
         <v>298</v>
-      </c>
-      <c r="B103" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" t="s">
         <v>291</v>
-      </c>
-      <c r="B104" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" t="s">
         <v>285</v>
-      </c>
-      <c r="B105" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>282</v>
+      </c>
+      <c r="B106" t="s">
         <v>283</v>
-      </c>
-      <c r="B106" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>598</v>
+      </c>
+      <c r="B107" t="s">
         <v>599</v>
-      </c>
-      <c r="B107" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" t="s">
         <v>300</v>
-      </c>
-      <c r="B108" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" t="s">
         <v>308</v>
-      </c>
-      <c r="B109" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" t="s">
         <v>305</v>
-      </c>
-      <c r="B110" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" t="s">
         <v>302</v>
-      </c>
-      <c r="B111" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>537</v>
+      </c>
+      <c r="B112" t="s">
         <v>538</v>
-      </c>
-      <c r="B112" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" t="s">
         <v>312</v>
-      </c>
-      <c r="B113" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>323</v>
+      </c>
+      <c r="B114" t="s">
         <v>324</v>
-      </c>
-      <c r="B114" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" t="s">
         <v>318</v>
-      </c>
-      <c r="B115" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" t="s">
         <v>320</v>
-      </c>
-      <c r="B116" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" t="s">
         <v>333</v>
-      </c>
-      <c r="B117" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" t="s">
         <v>331</v>
-      </c>
-      <c r="B118" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>336</v>
+      </c>
+      <c r="B119" t="s">
         <v>337</v>
-      </c>
-      <c r="B119" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>334</v>
+      </c>
+      <c r="B120" t="s">
         <v>335</v>
-      </c>
-      <c r="B120" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" t="s">
         <v>322</v>
-      </c>
-      <c r="B121" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B122" t="s">
         <v>326</v>
-      </c>
-      <c r="B122" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>338</v>
+      </c>
+      <c r="B123" t="s">
         <v>339</v>
-      </c>
-      <c r="B123" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>350</v>
+      </c>
+      <c r="B124" t="s">
         <v>351</v>
-      </c>
-      <c r="B124" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" t="s">
         <v>347</v>
-      </c>
-      <c r="B125" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>340</v>
+      </c>
+      <c r="B126" t="s">
         <v>341</v>
-      </c>
-      <c r="B126" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>344</v>
+      </c>
+      <c r="B127" t="s">
         <v>345</v>
-      </c>
-      <c r="B127" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" t="s">
         <v>343</v>
-      </c>
-      <c r="B128" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>594</v>
+      </c>
+      <c r="B129" t="s">
         <v>595</v>
-      </c>
-      <c r="B129" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
         <v>234</v>
-      </c>
-      <c r="B130" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" t="s">
         <v>236</v>
-      </c>
-      <c r="B131" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" t="s">
         <v>354</v>
-      </c>
-      <c r="B132" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>355</v>
+      </c>
+      <c r="B133" t="s">
         <v>356</v>
-      </c>
-      <c r="B133" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" t="s">
         <v>360</v>
-      </c>
-      <c r="B134" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>363</v>
+      </c>
+      <c r="B135" t="s">
         <v>364</v>
-      </c>
-      <c r="B135" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" t="s">
         <v>358</v>
-      </c>
-      <c r="B136" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>367</v>
+      </c>
+      <c r="B137" t="s">
         <v>368</v>
-      </c>
-      <c r="B137" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" t="s">
         <v>362</v>
-      </c>
-      <c r="B138" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>372</v>
+      </c>
+      <c r="B139" t="s">
         <v>373</v>
-      </c>
-      <c r="B139" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>374</v>
+      </c>
+      <c r="B140" t="s">
         <v>375</v>
-      </c>
-      <c r="B140" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" t="s">
         <v>366</v>
-      </c>
-      <c r="B141" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>378</v>
+      </c>
+      <c r="B142" t="s">
         <v>379</v>
-      </c>
-      <c r="B142" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="s">
         <v>382</v>
-      </c>
-      <c r="B143" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>383</v>
+      </c>
+      <c r="B144" t="s">
         <v>384</v>
-      </c>
-      <c r="B144" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>386</v>
+      </c>
+      <c r="B145" t="s">
         <v>387</v>
-      </c>
-      <c r="B145" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>388</v>
+      </c>
+      <c r="B146" t="s">
         <v>389</v>
-      </c>
-      <c r="B146" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>394</v>
+      </c>
+      <c r="B147" t="s">
         <v>395</v>
-      </c>
-      <c r="B147" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>526</v>
+      </c>
+      <c r="B148" t="s">
         <v>527</v>
-      </c>
-      <c r="B148" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" t="s">
         <v>399</v>
-      </c>
-      <c r="B149" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>656</v>
+      </c>
+      <c r="B150" t="s">
         <v>657</v>
-      </c>
-      <c r="B150" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" t="s">
         <v>401</v>
-      </c>
-      <c r="B151" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152" t="s">
         <v>391</v>
-      </c>
-      <c r="B152" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>404</v>
+      </c>
+      <c r="B153" t="s">
         <v>405</v>
-      </c>
-      <c r="B153" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>430</v>
+      </c>
+      <c r="B154" t="s">
         <v>431</v>
-      </c>
-      <c r="B154" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>414</v>
+      </c>
+      <c r="B155" t="s">
         <v>415</v>
-      </c>
-      <c r="B155" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>402</v>
+      </c>
+      <c r="B156" t="s">
         <v>403</v>
-      </c>
-      <c r="B156" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>608</v>
+      </c>
+      <c r="B157" t="s">
         <v>609</v>
-      </c>
-      <c r="B157" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>416</v>
+      </c>
+      <c r="B158" t="s">
         <v>417</v>
-      </c>
-      <c r="B158" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>406</v>
+      </c>
+      <c r="B159" t="s">
         <v>407</v>
-      </c>
-      <c r="B159" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" t="s">
         <v>429</v>
-      </c>
-      <c r="B160" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" t="s">
         <v>409</v>
-      </c>
-      <c r="B161" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>410</v>
+      </c>
+      <c r="B162" t="s">
         <v>411</v>
-      </c>
-      <c r="B162" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>420</v>
+      </c>
+      <c r="B163" t="s">
         <v>421</v>
-      </c>
-      <c r="B163" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>426</v>
+      </c>
+      <c r="B164" t="s">
         <v>427</v>
-      </c>
-      <c r="B164" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>418</v>
+      </c>
+      <c r="B165" t="s">
         <v>419</v>
-      </c>
-      <c r="B165" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>424</v>
+      </c>
+      <c r="B166" t="s">
         <v>425</v>
-      </c>
-      <c r="B166" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>433</v>
+      </c>
+      <c r="B167" t="s">
         <v>434</v>
-      </c>
-      <c r="B167" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>436</v>
+      </c>
+      <c r="B168" t="s">
         <v>437</v>
-      </c>
-      <c r="B168" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>446</v>
+      </c>
+      <c r="B169" t="s">
         <v>447</v>
-      </c>
-      <c r="B169" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>480</v>
+      </c>
+      <c r="B170" t="s">
         <v>481</v>
-      </c>
-      <c r="B170" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>482</v>
+      </c>
+      <c r="B171" t="s">
         <v>483</v>
-      </c>
-      <c r="B171" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>448</v>
+      </c>
+      <c r="B172" t="s">
         <v>449</v>
-      </c>
-      <c r="B172" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>460</v>
+      </c>
+      <c r="B173" t="s">
         <v>461</v>
-      </c>
-      <c r="B173" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>462</v>
+      </c>
+      <c r="B174" t="s">
         <v>463</v>
-      </c>
-      <c r="B174" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>454</v>
+      </c>
+      <c r="B175" t="s">
         <v>455</v>
-      </c>
-      <c r="B175" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>476</v>
+      </c>
+      <c r="B176" t="s">
         <v>477</v>
-      </c>
-      <c r="B176" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>478</v>
+      </c>
+      <c r="B177" t="s">
         <v>479</v>
-      </c>
-      <c r="B177" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>452</v>
+      </c>
+      <c r="B178" t="s">
         <v>453</v>
-      </c>
-      <c r="B178" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>309</v>
+      </c>
+      <c r="B179" t="s">
         <v>310</v>
-      </c>
-      <c r="B179" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>450</v>
+      </c>
+      <c r="B180" t="s">
         <v>451</v>
-      </c>
-      <c r="B180" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>466</v>
+      </c>
+      <c r="B181" t="s">
         <v>467</v>
-      </c>
-      <c r="B181" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>612</v>
+      </c>
+      <c r="B182" t="s">
         <v>613</v>
-      </c>
-      <c r="B182" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>456</v>
+      </c>
+      <c r="B183" t="s">
         <v>457</v>
-      </c>
-      <c r="B183" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>442</v>
+      </c>
+      <c r="B184" t="s">
         <v>443</v>
-      </c>
-      <c r="B184" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>470</v>
+      </c>
+      <c r="B185" t="s">
         <v>471</v>
-      </c>
-      <c r="B185" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>440</v>
+      </c>
+      <c r="B186" t="s">
         <v>441</v>
-      </c>
-      <c r="B186" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>474</v>
+      </c>
+      <c r="B187" t="s">
         <v>475</v>
-      </c>
-      <c r="B187" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>464</v>
+      </c>
+      <c r="B188" t="s">
         <v>465</v>
-      </c>
-      <c r="B188" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>486</v>
+      </c>
+      <c r="B189" t="s">
         <v>487</v>
-      </c>
-      <c r="B189" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>500</v>
+      </c>
+      <c r="B190" t="s">
         <v>501</v>
-      </c>
-      <c r="B190" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>498</v>
+      </c>
+      <c r="B191" t="s">
         <v>499</v>
-      </c>
-      <c r="B191" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>488</v>
+      </c>
+      <c r="B192" t="s">
         <v>489</v>
-      </c>
-      <c r="B192" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>494</v>
+      </c>
+      <c r="B193" t="s">
         <v>495</v>
-      </c>
-      <c r="B193" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>490</v>
+      </c>
+      <c r="B194" t="s">
         <v>491</v>
-      </c>
-      <c r="B194" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>492</v>
+      </c>
+      <c r="B195" t="s">
         <v>493</v>
-      </c>
-      <c r="B195" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>484</v>
+      </c>
+      <c r="B196" t="s">
         <v>485</v>
-      </c>
-      <c r="B196" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>458</v>
+      </c>
+      <c r="B197" t="s">
         <v>459</v>
-      </c>
-      <c r="B197" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>472</v>
+      </c>
+      <c r="B198" t="s">
         <v>473</v>
-      </c>
-      <c r="B198" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>369</v>
+      </c>
+      <c r="B199" t="s">
         <v>370</v>
-      </c>
-      <c r="B199" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>503</v>
+      </c>
+      <c r="B200" t="s">
         <v>504</v>
-      </c>
-      <c r="B200" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>505</v>
+      </c>
+      <c r="B201" t="s">
         <v>506</v>
-      </c>
-      <c r="B201" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>507</v>
+      </c>
+      <c r="B202" t="s">
         <v>508</v>
-      </c>
-      <c r="B202" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>533</v>
+      </c>
+      <c r="B203" t="s">
         <v>534</v>
-      </c>
-      <c r="B203" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>509</v>
+      </c>
+      <c r="B204" t="s">
         <v>510</v>
-      </c>
-      <c r="B204" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>517</v>
+      </c>
+      <c r="B205" t="s">
         <v>518</v>
-      </c>
-      <c r="B205" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>511</v>
+      </c>
+      <c r="B206" t="s">
         <v>512</v>
-      </c>
-      <c r="B206" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>519</v>
+      </c>
+      <c r="B207" t="s">
         <v>520</v>
-      </c>
-      <c r="B207" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>529</v>
+      </c>
+      <c r="B208" t="s">
         <v>530</v>
-      </c>
-      <c r="B208" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>513</v>
+      </c>
+      <c r="B209" t="s">
         <v>514</v>
-      </c>
-      <c r="B209" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>515</v>
+      </c>
+      <c r="B210" t="s">
         <v>516</v>
-      </c>
-      <c r="B210" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>535</v>
+      </c>
+      <c r="B211" t="s">
         <v>536</v>
-      </c>
-      <c r="B211" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>522</v>
+      </c>
+      <c r="B212" t="s">
         <v>523</v>
-      </c>
-      <c r="B212" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>524</v>
+      </c>
+      <c r="B213" t="s">
         <v>525</v>
-      </c>
-      <c r="B213" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>539</v>
+      </c>
+      <c r="B214" t="s">
         <v>540</v>
-      </c>
-      <c r="B214" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>544</v>
+      </c>
+      <c r="B215" t="s">
         <v>545</v>
-      </c>
-      <c r="B215" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>654</v>
+      </c>
+      <c r="B216" t="s">
         <v>655</v>
-      </c>
-      <c r="B216" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>562</v>
+      </c>
+      <c r="B217" t="s">
         <v>563</v>
-      </c>
-      <c r="B217" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>576</v>
+      </c>
+      <c r="B218" t="s">
         <v>577</v>
-      </c>
-      <c r="B218" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>548</v>
+      </c>
+      <c r="B219" t="s">
         <v>549</v>
-      </c>
-      <c r="B219" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>552</v>
+      </c>
+      <c r="B220" t="s">
         <v>553</v>
-      </c>
-      <c r="B220" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>588</v>
+      </c>
+      <c r="B221" t="s">
         <v>589</v>
-      </c>
-      <c r="B221" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>558</v>
+      </c>
+      <c r="B222" t="s">
         <v>559</v>
-      </c>
-      <c r="B222" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>554</v>
+      </c>
+      <c r="B223" t="s">
         <v>555</v>
-      </c>
-      <c r="B223" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>586</v>
+      </c>
+      <c r="B224" t="s">
         <v>587</v>
-      </c>
-      <c r="B224" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>574</v>
+      </c>
+      <c r="B225" t="s">
         <v>575</v>
-      </c>
-      <c r="B225" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>556</v>
+      </c>
+      <c r="B226" t="s">
         <v>557</v>
-      </c>
-      <c r="B226" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>564</v>
+      </c>
+      <c r="B227" t="s">
         <v>565</v>
-      </c>
-      <c r="B227" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>660</v>
+      </c>
+      <c r="B228" t="s">
         <v>661</v>
-      </c>
-      <c r="B228" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>546</v>
+      </c>
+      <c r="B229" t="s">
         <v>547</v>
-      </c>
-      <c r="B229" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>616</v>
+      </c>
+      <c r="B230" t="s">
         <v>617</v>
-      </c>
-      <c r="B230" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>570</v>
+      </c>
+      <c r="B231" t="s">
         <v>571</v>
-      </c>
-      <c r="B231" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232" t="s">
         <v>423</v>
-      </c>
-      <c r="B232" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>396</v>
+      </c>
+      <c r="B233" t="s">
         <v>397</v>
-      </c>
-      <c r="B233" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>412</v>
+      </c>
+      <c r="B234" t="s">
         <v>413</v>
-      </c>
-      <c r="B234" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" t="s">
         <v>439</v>
-      </c>
-      <c r="B235" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>640</v>
+      </c>
+      <c r="B236" t="s">
         <v>641</v>
-      </c>
-      <c r="B236" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>572</v>
+      </c>
+      <c r="B237" t="s">
         <v>573</v>
-      </c>
-      <c r="B237" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>568</v>
+      </c>
+      <c r="B238" t="s">
         <v>569</v>
-      </c>
-      <c r="B238" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>618</v>
+      </c>
+      <c r="B239" t="s">
         <v>619</v>
-      </c>
-      <c r="B239" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>550</v>
+      </c>
+      <c r="B240" t="s">
         <v>551</v>
-      </c>
-      <c r="B240" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>578</v>
+      </c>
+      <c r="B241" t="s">
         <v>579</v>
-      </c>
-      <c r="B241" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>590</v>
+      </c>
+      <c r="B242" t="s">
         <v>591</v>
-      </c>
-      <c r="B242" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>604</v>
+      </c>
+      <c r="B243" t="s">
         <v>605</v>
-      </c>
-      <c r="B243" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>628</v>
+      </c>
+      <c r="B244" t="s">
         <v>629</v>
-      </c>
-      <c r="B244" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>602</v>
+      </c>
+      <c r="B245" t="s">
         <v>603</v>
-      </c>
-      <c r="B245" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>610</v>
+      </c>
+      <c r="B246" t="s">
         <v>611</v>
-      </c>
-      <c r="B246" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>600</v>
+      </c>
+      <c r="B247" t="s">
         <v>601</v>
-      </c>
-      <c r="B247" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>614</v>
+      </c>
+      <c r="B248" t="s">
         <v>615</v>
-      </c>
-      <c r="B248" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>620</v>
+      </c>
+      <c r="B249" t="s">
         <v>621</v>
-      </c>
-      <c r="B249" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>622</v>
+      </c>
+      <c r="B250" t="s">
         <v>623</v>
-      </c>
-      <c r="B250" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>606</v>
+      </c>
+      <c r="B251" t="s">
         <v>607</v>
-      </c>
-      <c r="B251" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>592</v>
+      </c>
+      <c r="B252" t="s">
         <v>593</v>
-      </c>
-      <c r="B252" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>626</v>
+      </c>
+      <c r="B253" t="s">
         <v>627</v>
-      </c>
-      <c r="B253" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>630</v>
+      </c>
+      <c r="B254" t="s">
         <v>631</v>
-      </c>
-      <c r="B254" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>179</v>
+      </c>
+      <c r="B255" t="s">
         <v>180</v>
-      </c>
-      <c r="B255" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>633</v>
+      </c>
+      <c r="B256" t="s">
         <v>634</v>
-      </c>
-      <c r="B256" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>635</v>
+      </c>
+      <c r="B257" t="s">
         <v>636</v>
-      </c>
-      <c r="B257" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>638</v>
+      </c>
+      <c r="B258" t="s">
         <v>639</v>
-      </c>
-      <c r="B258" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>650</v>
+      </c>
+      <c r="B259" t="s">
         <v>651</v>
-      </c>
-      <c r="B259" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>642</v>
+      </c>
+      <c r="B260" t="s">
         <v>643</v>
-      </c>
-      <c r="B260" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>648</v>
+      </c>
+      <c r="B261" t="s">
         <v>649</v>
-      </c>
-      <c r="B261" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>646</v>
+      </c>
+      <c r="B262" t="s">
         <v>647</v>
-      </c>
-      <c r="B262" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>531</v>
+      </c>
+      <c r="B263" t="s">
         <v>532</v>
-      </c>
-      <c r="B263" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>652</v>
+      </c>
+      <c r="B264" t="s">
         <v>653</v>
-      </c>
-      <c r="B264" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>658</v>
+      </c>
+      <c r="B265" t="s">
         <v>659</v>
-      </c>
-      <c r="B265" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>662</v>
+      </c>
+      <c r="B266" t="s">
         <v>663</v>
-      </c>
-      <c r="B266" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>664</v>
+      </c>
+      <c r="B267" t="s">
         <v>665</v>
-      </c>
-      <c r="B267" t="s">
-        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/qualityoflife_country_compare_2021.xlsx
+++ b/qualityoflife_country_compare_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarogumulec/Documents/Kody/QualityOfLife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2919D0-1020-1247-B516-C156A43A0622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE1550-68D9-9145-9DF3-E2902D13C716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40900" yWindow="-21980" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{72E829D7-3EE3-4F5A-80DA-9E2BC7D33FF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="787">
   <si>
     <t>Země</t>
   </si>
@@ -2390,6 +2390,15 @@
   </si>
   <si>
     <t>Social benefits expense, % of GDP general government</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2514,7 +2523,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -8233,10 +8241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC34AECA-0233-8F4D-9A6A-7C98DF6640BF}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="3" sqref="A1:A1048576 C1:C1048576 D1:D1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9116,6 +9124,9 @@
       <c r="A32" s="7" t="s">
         <v>736</v>
       </c>
+      <c r="C32" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D32" s="7" t="s">
         <v>734</v>
       </c>
@@ -9132,12 +9143,32 @@
         <v>770</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>743</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2025</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>737</v>
+        <v>741</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>738</v>
@@ -9154,7 +9185,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>738</v>
@@ -9171,27 +9205,33 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>742</v>
+        <v>744</v>
+      </c>
+      <c r="B36" t="s">
+        <v>745</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="E36" s="7">
-        <v>2025</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>740</v>
+        <v>84</v>
+      </c>
+      <c r="F36" s="5">
+        <v>45937</v>
+      </c>
+      <c r="G36" t="s">
+        <v>747</v>
+      </c>
+      <c r="H36" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B37" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C37" t="s">
         <v>102</v>
@@ -9199,163 +9239,157 @@
       <c r="D37" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="E37" s="7">
+        <v>1990</v>
+      </c>
       <c r="F37" s="5">
         <v>45937</v>
       </c>
       <c r="G37" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="H37" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B38" t="s">
-        <v>748</v>
+        <v>753</v>
+      </c>
+      <c r="C38" t="s">
+        <v>786</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="7">
-        <v>1990</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="G38" t="s">
+        <v>755</v>
+      </c>
+      <c r="H38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B39" t="s">
+        <v>776</v>
+      </c>
+      <c r="C39" t="s">
+        <v>785</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2002</v>
+      </c>
+      <c r="F39" s="5">
         <v>45937</v>
       </c>
-      <c r="G38" t="s">
-        <v>750</v>
-      </c>
-      <c r="H38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>752</v>
-      </c>
-      <c r="B39" t="s">
-        <v>753</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G39" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="H39" t="s">
-        <v>754</v>
+        <v>756</v>
+      </c>
+      <c r="I39" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>758</v>
+      <c r="A40" t="s">
+        <v>759</v>
       </c>
       <c r="B40" t="s">
-        <v>776</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2002</v>
-      </c>
-      <c r="F40" s="5">
-        <v>45937</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>777</v>
+        <v>760</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>761</v>
       </c>
       <c r="H40" t="s">
-        <v>756</v>
-      </c>
-      <c r="I40" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>759</v>
-      </c>
-      <c r="B41" t="s">
-        <v>760</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="16" t="s">
-        <v>761</v>
+        <v>765</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>763</v>
       </c>
       <c r="H41" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>765</v>
+      <c r="A42" s="14" t="s">
+        <v>767</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="G42" s="16"/>
+        <v>766</v>
+      </c>
+      <c r="G42" t="s">
+        <v>769</v>
+      </c>
       <c r="H42" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>767</v>
+      <c r="A43" t="s">
+        <v>771</v>
+      </c>
+      <c r="C43" t="s">
+        <v>784</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>769</v>
+        <v>772</v>
+      </c>
+      <c r="E43">
+        <v>2009</v>
+      </c>
+      <c r="G43" t="s">
+        <v>773</v>
       </c>
       <c r="H43" t="s">
-        <v>768</v>
+        <v>774</v>
+      </c>
+      <c r="I43" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>771</v>
+        <v>782</v>
+      </c>
+      <c r="B44" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="E44">
-        <v>2009</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>773</v>
+        <v>757</v>
+      </c>
+      <c r="F44">
+        <v>2023</v>
+      </c>
+      <c r="G44" t="s">
+        <v>780</v>
       </c>
       <c r="H44" t="s">
-        <v>774</v>
-      </c>
-      <c r="I44" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>782</v>
-      </c>
-      <c r="B45" t="s">
-        <v>783</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="F45">
-        <v>2023</v>
-      </c>
-      <c r="G45" t="s">
-        <v>780</v>
-      </c>
-      <c r="H45" t="s">
         <v>781</v>
       </c>
     </row>
